--- a/data/pca/factorExposure/factorExposure_2009-10-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-10-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01056693693086291</v>
+        <v>0.01677507748042943</v>
       </c>
       <c r="C2">
-        <v>-0.001432529100536517</v>
+        <v>0.0009321356398071857</v>
       </c>
       <c r="D2">
-        <v>0.007055762016640942</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.008777464923101689</v>
+      </c>
+      <c r="E2">
+        <v>-0.001784743706223779</v>
+      </c>
+      <c r="F2">
+        <v>-0.01263580754636162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1063483300244025</v>
+        <v>0.09352427986101751</v>
       </c>
       <c r="C4">
-        <v>-0.005073536021922839</v>
+        <v>0.01461108517954762</v>
       </c>
       <c r="D4">
-        <v>0.05859200005863777</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08460095972833326</v>
+      </c>
+      <c r="E4">
+        <v>-0.02979044349994478</v>
+      </c>
+      <c r="F4">
+        <v>0.03134520905583136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.140660536094641</v>
+        <v>0.1586132733838949</v>
       </c>
       <c r="C6">
-        <v>-0.009364328854536958</v>
+        <v>0.02613592151168482</v>
       </c>
       <c r="D6">
-        <v>-0.02778998345915774</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02257645478658927</v>
+      </c>
+      <c r="E6">
+        <v>-0.01015963783120222</v>
+      </c>
+      <c r="F6">
+        <v>0.04513394152454132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.0744198690800867</v>
+        <v>0.06327042536918431</v>
       </c>
       <c r="C7">
-        <v>0.00823133691932062</v>
+        <v>-0.001814195616339598</v>
       </c>
       <c r="D7">
-        <v>0.03470379358128806</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05295483726454683</v>
+      </c>
+      <c r="E7">
+        <v>-0.01114342808329304</v>
+      </c>
+      <c r="F7">
+        <v>0.0464378043643465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06785234607093252</v>
+        <v>0.05725826478788541</v>
       </c>
       <c r="C8">
-        <v>0.0183141040194439</v>
+        <v>-0.01349503178928527</v>
       </c>
       <c r="D8">
-        <v>0.0002440203949138677</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.033148440180652</v>
+      </c>
+      <c r="E8">
+        <v>-0.01799333841775424</v>
+      </c>
+      <c r="F8">
+        <v>-0.02738804565197533</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08649734976207174</v>
+        <v>0.0707123311969443</v>
       </c>
       <c r="C9">
-        <v>-0.004859521859931186</v>
+        <v>0.01021407262031936</v>
       </c>
       <c r="D9">
-        <v>0.05599337691194094</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08671932662272287</v>
+      </c>
+      <c r="E9">
+        <v>-0.02319958448486439</v>
+      </c>
+      <c r="F9">
+        <v>0.04726906403681858</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.06309789725861739</v>
+        <v>0.09294731151774042</v>
       </c>
       <c r="C10">
-        <v>-0.002932711490451037</v>
+        <v>0.02116452856863045</v>
       </c>
       <c r="D10">
-        <v>-0.1484017894021519</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1669876800255868</v>
+      </c>
+      <c r="E10">
+        <v>0.03405033571766267</v>
+      </c>
+      <c r="F10">
+        <v>-0.05447473851658832</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09607084170622537</v>
+        <v>0.08786870107686055</v>
       </c>
       <c r="C11">
-        <v>-0.004460410240304435</v>
+        <v>0.01027226376201912</v>
       </c>
       <c r="D11">
-        <v>0.08683745416470891</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1168606176659103</v>
+      </c>
+      <c r="E11">
+        <v>-0.046106107391149</v>
+      </c>
+      <c r="F11">
+        <v>0.02212940575089845</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.1035771047166369</v>
+        <v>0.09186471451436849</v>
       </c>
       <c r="C12">
-        <v>-0.002193780876706697</v>
+        <v>0.007645849079712027</v>
       </c>
       <c r="D12">
-        <v>0.08720096916091262</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1320223654848185</v>
+      </c>
+      <c r="E12">
+        <v>-0.04704693735753411</v>
+      </c>
+      <c r="F12">
+        <v>0.02786607524545036</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04126896978404546</v>
+        <v>0.04182711916069264</v>
       </c>
       <c r="C13">
-        <v>-0.0006754201490654158</v>
+        <v>0.00258295978278403</v>
       </c>
       <c r="D13">
-        <v>0.03695205844134365</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.0537374252866011</v>
+      </c>
+      <c r="E13">
+        <v>0.004756988519362136</v>
+      </c>
+      <c r="F13">
+        <v>0.0003900040797448595</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02018296095338947</v>
+        <v>0.02398338601793771</v>
       </c>
       <c r="C14">
-        <v>-0.01183493987548178</v>
+        <v>0.01383118830327377</v>
       </c>
       <c r="D14">
-        <v>0.02593193418080032</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03279967949456614</v>
+      </c>
+      <c r="E14">
+        <v>-0.01928982864919503</v>
+      </c>
+      <c r="F14">
+        <v>0.01213381132776651</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.04189381059967436</v>
+        <v>0.03273503547175548</v>
       </c>
       <c r="C15">
-        <v>-0.002157975584599265</v>
+        <v>0.004640106304592605</v>
       </c>
       <c r="D15">
-        <v>0.01605651035582747</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04481903081800741</v>
+      </c>
+      <c r="E15">
+        <v>-0.00567914536370312</v>
+      </c>
+      <c r="F15">
+        <v>0.02397814098796837</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.08407173811023842</v>
+        <v>0.07427615553535932</v>
       </c>
       <c r="C16">
-        <v>0.003202726716568663</v>
+        <v>0.0009286790733994732</v>
       </c>
       <c r="D16">
-        <v>0.08280880256250653</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1275191284428456</v>
+      </c>
+      <c r="E16">
+        <v>-0.06114643470892714</v>
+      </c>
+      <c r="F16">
+        <v>0.02636945861854137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.000467316779792341</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0001463076987314893</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.0008305473523939356</v>
+      </c>
+      <c r="E17">
+        <v>-0.0004467875453417298</v>
+      </c>
+      <c r="F17">
+        <v>-0.000372782323537663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.001902539419187664</v>
+        <v>0.03493797347049594</v>
       </c>
       <c r="C18">
-        <v>0.0001344741606227941</v>
+        <v>-0.003110144391061814</v>
       </c>
       <c r="D18">
-        <v>-0.003535015759412143</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01634914357011187</v>
+      </c>
+      <c r="E18">
+        <v>0.006185200593314939</v>
+      </c>
+      <c r="F18">
+        <v>-0.008661500383809285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06326357139972463</v>
+        <v>0.06150450523673433</v>
       </c>
       <c r="C20">
-        <v>0.001147156332011929</v>
+        <v>-0.0001437821172645388</v>
       </c>
       <c r="D20">
-        <v>0.03139613106601645</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07759801608697543</v>
+      </c>
+      <c r="E20">
+        <v>-0.05584704261065075</v>
+      </c>
+      <c r="F20">
+        <v>0.02410194666928402</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.0404753358819759</v>
+        <v>0.04061358135812134</v>
       </c>
       <c r="C21">
-        <v>-0.005440872623985024</v>
+        <v>0.006429088678527637</v>
       </c>
       <c r="D21">
-        <v>0.009542191726923456</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03738996753524895</v>
+      </c>
+      <c r="E21">
+        <v>0.002977606723932254</v>
+      </c>
+      <c r="F21">
+        <v>-0.0261797391839994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.02220416666502535</v>
+        <v>0.04245081096744163</v>
       </c>
       <c r="C22">
-        <v>0.0003174872914471793</v>
+        <v>0.0003415812384946406</v>
       </c>
       <c r="D22">
-        <v>-0.02077270642388612</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.007307725614957296</v>
+      </c>
+      <c r="E22">
+        <v>-0.03555280513633866</v>
+      </c>
+      <c r="F22">
+        <v>-0.04127020739427256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.0221456005324214</v>
+        <v>0.0424266672962398</v>
       </c>
       <c r="C23">
-        <v>0.0003180294070304229</v>
+        <v>0.0003332046193345461</v>
       </c>
       <c r="D23">
-        <v>-0.02076375751768842</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.007323520455770031</v>
+      </c>
+      <c r="E23">
+        <v>-0.03573644210651249</v>
+      </c>
+      <c r="F23">
+        <v>-0.04123306575665683</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.09114028103513803</v>
+        <v>0.07995073172092178</v>
       </c>
       <c r="C24">
-        <v>0.003871137412122459</v>
+        <v>0.001556340093575102</v>
       </c>
       <c r="D24">
-        <v>0.09414732477464784</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1217212977541592</v>
+      </c>
+      <c r="E24">
+        <v>-0.04923763051037606</v>
+      </c>
+      <c r="F24">
+        <v>0.02702995402608009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.09523754512069628</v>
+        <v>0.08528829875286871</v>
       </c>
       <c r="C25">
-        <v>0.001112451894394876</v>
+        <v>0.004293131080324137</v>
       </c>
       <c r="D25">
-        <v>0.08928051525269014</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1093000285621574</v>
+      </c>
+      <c r="E25">
+        <v>-0.03273575237785691</v>
+      </c>
+      <c r="F25">
+        <v>0.02657044988428717</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05455164423428694</v>
+        <v>0.05831443831959425</v>
       </c>
       <c r="C26">
-        <v>-0.01144682005924675</v>
+        <v>0.01419774100428111</v>
       </c>
       <c r="D26">
-        <v>0.007678972781997665</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.04086915294922371</v>
+      </c>
+      <c r="E26">
+        <v>-0.02773538942381218</v>
+      </c>
+      <c r="F26">
+        <v>-0.006221422297531443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1090204225638083</v>
+        <v>0.1419310006826614</v>
       </c>
       <c r="C28">
-        <v>0.006266316797147677</v>
+        <v>0.02201369979073794</v>
       </c>
       <c r="D28">
-        <v>-0.2572209485923758</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2616919089557063</v>
+      </c>
+      <c r="E28">
+        <v>0.06728408856704227</v>
+      </c>
+      <c r="F28">
+        <v>0.008564798999497428</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02373129274746958</v>
+        <v>0.02842161991677543</v>
       </c>
       <c r="C29">
-        <v>-0.006926710208111701</v>
+        <v>0.008667647214168054</v>
       </c>
       <c r="D29">
-        <v>0.01704313261260411</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.0309857068443947</v>
+      </c>
+      <c r="E29">
+        <v>-0.01377954519443943</v>
+      </c>
+      <c r="F29">
+        <v>-0.01390385488619389</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.09229943603935351</v>
+        <v>0.05978076820604457</v>
       </c>
       <c r="C30">
-        <v>0.005615568567489798</v>
+        <v>0.002599873111406012</v>
       </c>
       <c r="D30">
-        <v>0.06670616846756559</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08995579351617795</v>
+      </c>
+      <c r="E30">
+        <v>-0.01624501853538112</v>
+      </c>
+      <c r="F30">
+        <v>0.07959616340426982</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.03611979869978444</v>
+        <v>0.05069861522896683</v>
       </c>
       <c r="C31">
-        <v>-0.0127045506863172</v>
+        <v>0.01532296253320866</v>
       </c>
       <c r="D31">
-        <v>0.01582927266889043</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02466538202310303</v>
+      </c>
+      <c r="E31">
+        <v>-0.02762317422676453</v>
+      </c>
+      <c r="F31">
+        <v>-0.002251077343023355</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04854411991780695</v>
+        <v>0.05138157347504187</v>
       </c>
       <c r="C32">
-        <v>0.00502794557587569</v>
+        <v>-0.001826935726283526</v>
       </c>
       <c r="D32">
-        <v>0.01548576574947596</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.0351250191951217</v>
+      </c>
+      <c r="E32">
+        <v>-0.03322281801782911</v>
+      </c>
+      <c r="F32">
+        <v>0.003386670088574587</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.1008066845962794</v>
+        <v>0.08930751286662586</v>
       </c>
       <c r="C33">
-        <v>-0.0002701148813670471</v>
+        <v>0.006748512356341146</v>
       </c>
       <c r="D33">
-        <v>0.06066575543405704</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1010259958772534</v>
+      </c>
+      <c r="E33">
+        <v>-0.04451303991884716</v>
+      </c>
+      <c r="F33">
+        <v>0.03632987933677747</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.08370999887663623</v>
+        <v>0.06769250721301329</v>
       </c>
       <c r="C34">
-        <v>-0.004143804390871042</v>
+        <v>0.009960299317799846</v>
       </c>
       <c r="D34">
-        <v>0.08243086095501395</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1090051639931109</v>
+      </c>
+      <c r="E34">
+        <v>-0.03444573817548934</v>
+      </c>
+      <c r="F34">
+        <v>0.03317278062899273</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02344166465076959</v>
+        <v>0.02450427739213319</v>
       </c>
       <c r="C35">
-        <v>0.0006427739416312428</v>
+        <v>0.002446321017782121</v>
       </c>
       <c r="D35">
-        <v>0.002308914714917735</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01125427388992184</v>
+      </c>
+      <c r="E35">
+        <v>-0.01203568282195921</v>
+      </c>
+      <c r="F35">
+        <v>0.0002562043969907199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.01391041514077321</v>
+        <v>0.02762021625387182</v>
       </c>
       <c r="C36">
-        <v>-0.008334937031612604</v>
+        <v>0.006802787975405204</v>
       </c>
       <c r="D36">
-        <v>0.02976605321212704</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03964524308644801</v>
+      </c>
+      <c r="E36">
+        <v>-0.01638380464422689</v>
+      </c>
+      <c r="F36">
+        <v>0.01542850381415105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.001331355911989722</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0006469335520025576</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.002332654486396851</v>
+      </c>
+      <c r="E37">
+        <v>0.0006621748149373046</v>
+      </c>
+      <c r="F37">
+        <v>0.0004291447239061214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0001615842392327502</v>
+        <v>5.668796822220376e-05</v>
       </c>
       <c r="C38">
-        <v>-3.466186007160831e-05</v>
+        <v>-5.60500654933904e-05</v>
       </c>
       <c r="D38">
-        <v>0.001103279109764912</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0005020753188341646</v>
+      </c>
+      <c r="E38">
+        <v>0.000393411460449188</v>
+      </c>
+      <c r="F38">
+        <v>0.0001717997815849578</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1272838140791681</v>
+        <v>0.104840319112787</v>
       </c>
       <c r="C39">
-        <v>-0.006244174382505496</v>
+        <v>0.01547487170572539</v>
       </c>
       <c r="D39">
-        <v>0.1307996998957568</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1546423608607756</v>
+      </c>
+      <c r="E39">
+        <v>-0.05888050336160995</v>
+      </c>
+      <c r="F39">
+        <v>0.02987093948838885</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.02879716481571442</v>
+        <v>0.04173247346855359</v>
       </c>
       <c r="C40">
-        <v>-0.006469634424001241</v>
+        <v>0.006972425067185813</v>
       </c>
       <c r="D40">
-        <v>-0.01662257474667722</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03079355623160288</v>
+      </c>
+      <c r="E40">
+        <v>-0.002268109737381872</v>
+      </c>
+      <c r="F40">
+        <v>-0.01667865565731593</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02117754342266643</v>
+        <v>0.0278939149217181</v>
       </c>
       <c r="C41">
-        <v>-0.00516469761283004</v>
+        <v>0.006909829604929017</v>
       </c>
       <c r="D41">
-        <v>-0.002274949525500871</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01043302954243516</v>
+      </c>
+      <c r="E41">
+        <v>-0.01176500603713479</v>
+      </c>
+      <c r="F41">
+        <v>-0.006910150362783709</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.01860073343988891</v>
+        <v>0.04060683869762256</v>
       </c>
       <c r="C43">
-        <v>-0.007447753399524204</v>
+        <v>0.007061416419178308</v>
       </c>
       <c r="D43">
-        <v>0.009626385271343175</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01920722616627488</v>
+      </c>
+      <c r="E43">
+        <v>-0.02493375708164334</v>
+      </c>
+      <c r="F43">
+        <v>-0.01403646236284868</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.1007762818756703</v>
+        <v>0.07944032703640887</v>
       </c>
       <c r="C44">
-        <v>-0.01204826617701579</v>
+        <v>0.01911521675273499</v>
       </c>
       <c r="D44">
-        <v>0.06681545064970001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09827924454536326</v>
+      </c>
+      <c r="E44">
+        <v>-0.06224639190910554</v>
+      </c>
+      <c r="F44">
+        <v>0.1562629598282784</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.0036814532417799</v>
+        <v>0.02312886626339624</v>
       </c>
       <c r="C46">
-        <v>-0.004417481854129607</v>
+        <v>0.003353325518507238</v>
       </c>
       <c r="D46">
-        <v>0.0009419400880055288</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01297626313514069</v>
+      </c>
+      <c r="E46">
+        <v>-0.0256519734561085</v>
+      </c>
+      <c r="F46">
+        <v>-0.008164342680709293</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.04073822016571424</v>
+        <v>0.0521049762024028</v>
       </c>
       <c r="C47">
-        <v>-0.0006167924729620327</v>
+        <v>0.003296713977654462</v>
       </c>
       <c r="D47">
-        <v>-0.0153525893318845</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01441098771799615</v>
+      </c>
+      <c r="E47">
+        <v>-0.02303156134820896</v>
+      </c>
+      <c r="F47">
+        <v>-0.03242488135083241</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.05179210981595566</v>
+        <v>0.05026405979685129</v>
       </c>
       <c r="C48">
-        <v>0.001293784069008328</v>
+        <v>0.002134783991006477</v>
       </c>
       <c r="D48">
-        <v>0.03038626541833971</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.05019787792797453</v>
+      </c>
+      <c r="E48">
+        <v>0.00519041819883102</v>
+      </c>
+      <c r="F48">
+        <v>0.00911956221839332</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2178501118604579</v>
+        <v>0.2002749847503429</v>
       </c>
       <c r="C49">
-        <v>0.00957947673129866</v>
+        <v>0.01882425690950002</v>
       </c>
       <c r="D49">
-        <v>-0.009236551045883154</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.005595223245734653</v>
+      </c>
+      <c r="E49">
+        <v>-0.03221557291254884</v>
+      </c>
+      <c r="F49">
+        <v>0.03776774369715425</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04057252581223973</v>
+        <v>0.0510302887893146</v>
       </c>
       <c r="C50">
-        <v>-0.008147558781074522</v>
+        <v>0.01098495408288902</v>
       </c>
       <c r="D50">
-        <v>0.01135251312418547</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02414642155017923</v>
+      </c>
+      <c r="E50">
+        <v>-0.02945224634174987</v>
+      </c>
+      <c r="F50">
+        <v>0.008975824050266663</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.000293428065476649</v>
+        <v>-0.0001866431662695217</v>
       </c>
       <c r="C51">
-        <v>2.411322915995368e-06</v>
+        <v>-4.108850505287926e-05</v>
       </c>
       <c r="D51">
-        <v>0.000261079044374285</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>6.039869200670194e-05</v>
+      </c>
+      <c r="E51">
+        <v>0.0001175464062168701</v>
+      </c>
+      <c r="F51">
+        <v>0.0008789367268326412</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1580281674196665</v>
+        <v>0.1472580336317418</v>
       </c>
       <c r="C52">
-        <v>0.003945207745245488</v>
+        <v>0.01686284971205874</v>
       </c>
       <c r="D52">
-        <v>0.04256614752539555</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04249895573864171</v>
+      </c>
+      <c r="E52">
+        <v>-0.0189308010087194</v>
+      </c>
+      <c r="F52">
+        <v>0.04362820497712708</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1738056599587385</v>
+        <v>0.1713283967411484</v>
       </c>
       <c r="C53">
-        <v>0.0052968478664782</v>
+        <v>0.01960301398031257</v>
       </c>
       <c r="D53">
-        <v>0.006675657475978088</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.005219230871358648</v>
+      </c>
+      <c r="E53">
+        <v>-0.02799624550885278</v>
+      </c>
+      <c r="F53">
+        <v>0.07373381394692562</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.02221515362352793</v>
+        <v>0.02116963243434744</v>
       </c>
       <c r="C54">
-        <v>-0.009173542731567974</v>
+        <v>0.01140497530617453</v>
       </c>
       <c r="D54">
-        <v>0.02041630688759374</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03458246072040992</v>
+      </c>
+      <c r="E54">
+        <v>-0.02140904462593855</v>
+      </c>
+      <c r="F54">
+        <v>-0.006119064095329465</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1033413527595632</v>
+        <v>0.1140121359540012</v>
       </c>
       <c r="C55">
-        <v>-0.001779918547990658</v>
+        <v>0.01710167116881902</v>
       </c>
       <c r="D55">
-        <v>0.004324521025622334</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.00814748692108256</v>
+      </c>
+      <c r="E55">
+        <v>-0.02384261478455328</v>
+      </c>
+      <c r="F55">
+        <v>0.0474845741646116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1773237474671532</v>
+        <v>0.1764863534156722</v>
       </c>
       <c r="C56">
-        <v>0.008024029031356758</v>
+        <v>0.01737327736403215</v>
       </c>
       <c r="D56">
-        <v>-0.01432626732300389</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.001331748054657585</v>
+      </c>
+      <c r="E56">
+        <v>-0.03342527184629224</v>
+      </c>
+      <c r="F56">
+        <v>0.05176062794873088</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.03186150221950364</v>
+        <v>0.04485719401193808</v>
       </c>
       <c r="C58">
-        <v>-0.003415181233672948</v>
+        <v>-0.000717065722020016</v>
       </c>
       <c r="D58">
-        <v>0.04843874053957972</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.07153914840343314</v>
+      </c>
+      <c r="E58">
+        <v>-0.03046113334028227</v>
+      </c>
+      <c r="F58">
+        <v>-0.03836638791802686</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1347561581832548</v>
+        <v>0.1670630124078213</v>
       </c>
       <c r="C59">
-        <v>0.007440226078168727</v>
+        <v>0.02192110450204707</v>
       </c>
       <c r="D59">
-        <v>-0.2321778192931917</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2171608638533483</v>
+      </c>
+      <c r="E59">
+        <v>0.04643900290569866</v>
+      </c>
+      <c r="F59">
+        <v>-0.03604225895082767</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2579284435110158</v>
+        <v>0.2319537559911596</v>
       </c>
       <c r="C60">
-        <v>0.03499711645729427</v>
+        <v>-0.002334733601829886</v>
       </c>
       <c r="D60">
-        <v>0.04274397829862572</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04193102379597441</v>
+      </c>
+      <c r="E60">
+        <v>-0.01028219380028672</v>
+      </c>
+      <c r="F60">
+        <v>-0.004609648046184296</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.1043898507452999</v>
+        <v>0.08050443469010853</v>
       </c>
       <c r="C61">
-        <v>-0.002470741615895888</v>
+        <v>0.0112395825435685</v>
       </c>
       <c r="D61">
-        <v>0.0873408225360511</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1177087883162368</v>
+      </c>
+      <c r="E61">
+        <v>-0.03958977902539963</v>
+      </c>
+      <c r="F61">
+        <v>0.0118550271350102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1725067368919153</v>
+        <v>0.1696123097675211</v>
       </c>
       <c r="C62">
-        <v>0.004180413989121123</v>
+        <v>0.02054894988652424</v>
       </c>
       <c r="D62">
-        <v>-0.01093151718253922</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.005378140026687613</v>
+      </c>
+      <c r="E62">
+        <v>-0.03318580556549684</v>
+      </c>
+      <c r="F62">
+        <v>0.03498876501693367</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04631453586670897</v>
+        <v>0.04583310341312079</v>
       </c>
       <c r="C63">
-        <v>0.0002162327634868886</v>
+        <v>0.001712328131958929</v>
       </c>
       <c r="D63">
-        <v>0.03638699248777883</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.05854112102160551</v>
+      </c>
+      <c r="E63">
+        <v>-0.02265542752072353</v>
+      </c>
+      <c r="F63">
+        <v>0.003396948009968006</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09913945677070615</v>
+        <v>0.1095840117220545</v>
       </c>
       <c r="C64">
-        <v>-0.003501505187051317</v>
+        <v>0.01106000539576498</v>
       </c>
       <c r="D64">
-        <v>0.00896938638731732</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04416894432586949</v>
+      </c>
+      <c r="E64">
+        <v>-0.02363976482033367</v>
+      </c>
+      <c r="F64">
+        <v>0.02466118188223894</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1314503066801582</v>
+        <v>0.1494543728198305</v>
       </c>
       <c r="C65">
-        <v>-0.01569407666083777</v>
+        <v>0.0335951676547882</v>
       </c>
       <c r="D65">
-        <v>-0.02506948984914397</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.04305691486471198</v>
+      </c>
+      <c r="E65">
+        <v>-0.005605073666920393</v>
+      </c>
+      <c r="F65">
+        <v>0.04083655441090692</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1562850503206038</v>
+        <v>0.1238680326681912</v>
       </c>
       <c r="C66">
-        <v>-0.0007773371472159188</v>
+        <v>0.01338323706816321</v>
       </c>
       <c r="D66">
-        <v>0.1214138182912076</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1428773951831802</v>
+      </c>
+      <c r="E66">
+        <v>-0.06549767923769867</v>
+      </c>
+      <c r="F66">
+        <v>0.03303248818942973</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06526247161515242</v>
+        <v>0.05817652479033568</v>
       </c>
       <c r="C67">
-        <v>0.003106605077764566</v>
+        <v>0.002883528836910247</v>
       </c>
       <c r="D67">
-        <v>0.03213863515598736</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05621109947627442</v>
+      </c>
+      <c r="E67">
+        <v>-0.01642229089347884</v>
+      </c>
+      <c r="F67">
+        <v>-0.03110931371620068</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.08899407699170965</v>
+        <v>0.1157423911299464</v>
       </c>
       <c r="C68">
-        <v>-0.006154105177365836</v>
+        <v>0.03252027086636197</v>
       </c>
       <c r="D68">
-        <v>-0.2381762884593263</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2604518347639996</v>
+      </c>
+      <c r="E68">
+        <v>0.08655920760404222</v>
+      </c>
+      <c r="F68">
+        <v>0.00439976728394682</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03446030443295496</v>
+        <v>0.03948742805808111</v>
       </c>
       <c r="C69">
-        <v>0.002421268144125235</v>
+        <v>0.001151330282942396</v>
       </c>
       <c r="D69">
-        <v>-0.001351880508400101</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008064253217737486</v>
+      </c>
+      <c r="E69">
+        <v>-0.02266947565437592</v>
+      </c>
+      <c r="F69">
+        <v>0.001402794774263639</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.03863102350161634</v>
+        <v>0.06682457847366004</v>
       </c>
       <c r="C70">
-        <v>0.02651934077335312</v>
+        <v>-0.02751580609848429</v>
       </c>
       <c r="D70">
-        <v>-0.04492038790221469</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.0241059601168984</v>
+      </c>
+      <c r="E70">
+        <v>0.03471596759523249</v>
+      </c>
+      <c r="F70">
+        <v>-0.1850746515795454</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1052496988155877</v>
+        <v>0.1358046632174655</v>
       </c>
       <c r="C71">
-        <v>-0.008402607029714005</v>
+        <v>0.03684046571665042</v>
       </c>
       <c r="D71">
-        <v>-0.2585908030407708</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2724508768851103</v>
+      </c>
+      <c r="E71">
+        <v>0.0972405248237804</v>
+      </c>
+      <c r="F71">
+        <v>0.009405431850705193</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1332742039250916</v>
+        <v>0.1423202393845228</v>
       </c>
       <c r="C72">
-        <v>-0.008720692967197045</v>
+        <v>0.0267882264231271</v>
       </c>
       <c r="D72">
-        <v>-0.01566297842335785</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.002660280476017742</v>
+      </c>
+      <c r="E72">
+        <v>-0.03674411080565187</v>
+      </c>
+      <c r="F72">
+        <v>0.03332684861014747</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.205425440046134</v>
+        <v>0.2028953082626113</v>
       </c>
       <c r="C73">
-        <v>0.01411598943876212</v>
+        <v>0.01254538498402247</v>
       </c>
       <c r="D73">
-        <v>-0.009025245241533258</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01739468205020259</v>
+      </c>
+      <c r="E73">
+        <v>-0.06238609757935616</v>
+      </c>
+      <c r="F73">
+        <v>0.03751401981628078</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1027882984286819</v>
+        <v>0.09458971072511842</v>
       </c>
       <c r="C74">
-        <v>0.001920848022177229</v>
+        <v>0.01335901828668126</v>
       </c>
       <c r="D74">
-        <v>0.01254709271986028</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01670963529544721</v>
+      </c>
+      <c r="E74">
+        <v>-0.04398154429669434</v>
+      </c>
+      <c r="F74">
+        <v>0.05727101224790112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1361200927991827</v>
+        <v>0.127574135480442</v>
       </c>
       <c r="C75">
-        <v>-0.01056092937200348</v>
+        <v>0.02813202763538378</v>
       </c>
       <c r="D75">
-        <v>0.01114540274291308</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03041858290338952</v>
+      </c>
+      <c r="E75">
+        <v>-0.05752171481925371</v>
+      </c>
+      <c r="F75">
+        <v>0.02217574379285517</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07845107317537657</v>
+        <v>0.08747560900165964</v>
       </c>
       <c r="C77">
-        <v>-0.005448243355931146</v>
+        <v>0.008236117377810505</v>
       </c>
       <c r="D77">
-        <v>0.09440283899349057</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1117177483444686</v>
+      </c>
+      <c r="E77">
+        <v>-0.03844763148276783</v>
+      </c>
+      <c r="F77">
+        <v>0.03357948543644768</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1264066137801178</v>
+        <v>0.1002883568419943</v>
       </c>
       <c r="C78">
-        <v>-0.03024481399388677</v>
+        <v>0.03935417612915746</v>
       </c>
       <c r="D78">
-        <v>0.06384994926566173</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.115058580579991</v>
+      </c>
+      <c r="E78">
+        <v>-0.0742369574006831</v>
+      </c>
+      <c r="F78">
+        <v>0.04696522948461398</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.161200308447685</v>
+        <v>0.1638651339430441</v>
       </c>
       <c r="C79">
-        <v>-0.001964024213765568</v>
+        <v>0.02289809846346187</v>
       </c>
       <c r="D79">
-        <v>-0.01326652991414444</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01370905876027611</v>
+      </c>
+      <c r="E79">
+        <v>-0.04519857210239937</v>
+      </c>
+      <c r="F79">
+        <v>0.01139898340018349</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.0887147228635012</v>
+        <v>0.08263788021114886</v>
       </c>
       <c r="C80">
-        <v>0.01002915928049582</v>
+        <v>-0.0008803062486636941</v>
       </c>
       <c r="D80">
-        <v>0.04311857396622217</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05638444398448928</v>
+      </c>
+      <c r="E80">
+        <v>-0.03601893155118015</v>
+      </c>
+      <c r="F80">
+        <v>-0.0222578607845665</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1227283389751311</v>
+        <v>0.1201188492069531</v>
       </c>
       <c r="C81">
-        <v>-0.01593255289243703</v>
+        <v>0.03201567154995783</v>
       </c>
       <c r="D81">
-        <v>0.02606974715013373</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.0146824419817712</v>
+      </c>
+      <c r="E81">
+        <v>-0.05634235428416842</v>
+      </c>
+      <c r="F81">
+        <v>0.01831170758729899</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1730881310531696</v>
+        <v>0.1663793729649556</v>
       </c>
       <c r="C82">
-        <v>-0.0002548256004901509</v>
+        <v>0.02509716769110761</v>
       </c>
       <c r="D82">
-        <v>0.0107300796764895</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.00313018177675065</v>
+      </c>
+      <c r="E82">
+        <v>-0.02606726186991798</v>
+      </c>
+      <c r="F82">
+        <v>0.08195585173149261</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06329186188427947</v>
+        <v>0.05918543577369795</v>
       </c>
       <c r="C83">
-        <v>0.001323279228889481</v>
+        <v>0.002741665854129432</v>
       </c>
       <c r="D83">
-        <v>0.03764686252733907</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05141899976386746</v>
+      </c>
+      <c r="E83">
+        <v>-0.003008680106611485</v>
+      </c>
+      <c r="F83">
+        <v>-0.03002458876381482</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.07383330287126438</v>
+        <v>0.0592578096711967</v>
       </c>
       <c r="C84">
-        <v>-0.005512552584113402</v>
+        <v>0.0110591763963175</v>
       </c>
       <c r="D84">
-        <v>0.04447155781114778</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.06394748088586323</v>
+      </c>
+      <c r="E84">
+        <v>-0.007123976163716393</v>
+      </c>
+      <c r="F84">
+        <v>0.005308849690488344</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1348368000528133</v>
+        <v>0.1357108318288213</v>
       </c>
       <c r="C85">
-        <v>-0.01006050681006455</v>
+        <v>0.02808877119253302</v>
       </c>
       <c r="D85">
-        <v>0.002586621648145645</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.009415931009332131</v>
+      </c>
+      <c r="E85">
+        <v>-0.03533333396577298</v>
+      </c>
+      <c r="F85">
+        <v>0.04772250608414186</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.07958480303404245</v>
+        <v>0.09546142060794401</v>
       </c>
       <c r="C86">
-        <v>0.007452682737114603</v>
+        <v>-0.005241542954528317</v>
       </c>
       <c r="D86">
-        <v>-0.08155223221576477</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.03968274487848736</v>
+      </c>
+      <c r="E86">
+        <v>-0.2244328826301077</v>
+      </c>
+      <c r="F86">
+        <v>-0.9058976633772194</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.13006585336569</v>
+        <v>0.09516070082265556</v>
       </c>
       <c r="C87">
-        <v>-0.009201680788114</v>
+        <v>0.01950196710426715</v>
       </c>
       <c r="D87">
-        <v>0.06587560577647043</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09366617137158786</v>
+      </c>
+      <c r="E87">
+        <v>0.05310531965014646</v>
+      </c>
+      <c r="F87">
+        <v>0.04821440651924064</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05267142926407974</v>
+        <v>0.06070730624900586</v>
       </c>
       <c r="C88">
-        <v>0.0001449783016276216</v>
+        <v>0.002125460771041855</v>
       </c>
       <c r="D88">
-        <v>0.0261154473377523</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04944944066791429</v>
+      </c>
+      <c r="E88">
+        <v>-0.02398231725526242</v>
+      </c>
+      <c r="F88">
+        <v>0.01306628023598197</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1189912074515197</v>
+        <v>0.13077618691192</v>
       </c>
       <c r="C89">
-        <v>0.01575138636875098</v>
+        <v>0.01354310556089741</v>
       </c>
       <c r="D89">
-        <v>-0.2783375419877883</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2472901528758516</v>
+      </c>
+      <c r="E89">
+        <v>0.08967969437465322</v>
+      </c>
+      <c r="F89">
+        <v>-0.007811349208686956</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1161833962558734</v>
+        <v>0.1508398879586326</v>
       </c>
       <c r="C90">
-        <v>-0.005218998445597928</v>
+        <v>0.03349462875512782</v>
       </c>
       <c r="D90">
-        <v>-0.2652508099738043</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2709330482151058</v>
+      </c>
+      <c r="E90">
+        <v>0.112825894197474</v>
+      </c>
+      <c r="F90">
+        <v>-0.008141592196913482</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1166136742955869</v>
+        <v>0.120937157257568</v>
       </c>
       <c r="C91">
-        <v>-0.001851286536804293</v>
+        <v>0.0196515377969723</v>
       </c>
       <c r="D91">
-        <v>-0.02847376934866803</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01502178392733184</v>
+      </c>
+      <c r="E91">
+        <v>-0.0552580324177683</v>
+      </c>
+      <c r="F91">
+        <v>-0.0007478153594167884</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1244401197787571</v>
+        <v>0.1478983494444484</v>
       </c>
       <c r="C92">
-        <v>0.009886718169355621</v>
+        <v>0.02448886927141297</v>
       </c>
       <c r="D92">
-        <v>-0.2931685089136253</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2912839652513923</v>
+      </c>
+      <c r="E92">
+        <v>0.1010134956156744</v>
+      </c>
+      <c r="F92">
+        <v>-0.01306627705306167</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1185836059159372</v>
+        <v>0.1516678605999573</v>
       </c>
       <c r="C93">
-        <v>0.000303614608158194</v>
+        <v>0.02878278934780935</v>
       </c>
       <c r="D93">
-        <v>-0.2623073070059413</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2674985592684156</v>
+      </c>
+      <c r="E93">
+        <v>0.07906862601940885</v>
+      </c>
+      <c r="F93">
+        <v>0.002869285663227789</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1394364945076998</v>
+        <v>0.1289111729487276</v>
       </c>
       <c r="C94">
-        <v>-0.006353478998853079</v>
+        <v>0.02461782565763715</v>
       </c>
       <c r="D94">
-        <v>0.03214992397211643</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04278949743444298</v>
+      </c>
+      <c r="E94">
+        <v>-0.05754219843886049</v>
+      </c>
+      <c r="F94">
+        <v>0.03793387359890095</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1194859889880061</v>
+        <v>0.1267514495297558</v>
       </c>
       <c r="C95">
-        <v>0.004514620473572889</v>
+        <v>0.003181498364213846</v>
       </c>
       <c r="D95">
-        <v>0.06405371162068267</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09417024598950476</v>
+      </c>
+      <c r="E95">
+        <v>-0.04744356998199449</v>
+      </c>
+      <c r="F95">
+        <v>-0.006187143516765988</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.02175847339026671</v>
+        <v>0.1082692986055849</v>
       </c>
       <c r="C96">
-        <v>0.9944916064508426</v>
+        <v>-0.9872140803747211</v>
       </c>
       <c r="D96">
-        <v>-0.01266598715435584</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.05076269487222135</v>
+      </c>
+      <c r="E96">
+        <v>-0.05355588435002526</v>
+      </c>
+      <c r="F96">
+        <v>0.04190369679040899</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1933930847188262</v>
+        <v>0.1942496114402752</v>
       </c>
       <c r="C97">
-        <v>0.03207497474892927</v>
+        <v>-0.006839067298435204</v>
       </c>
       <c r="D97">
-        <v>-0.06760297890138021</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.01920493622786229</v>
+      </c>
+      <c r="E97">
+        <v>-0.02440903197240863</v>
+      </c>
+      <c r="F97">
+        <v>-0.08044049365149446</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2144912753842468</v>
+        <v>0.2062622982538025</v>
       </c>
       <c r="C98">
-        <v>0.01793612625506311</v>
+        <v>0.007213854301603164</v>
       </c>
       <c r="D98">
-        <v>-0.02786833654740043</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01308313857442846</v>
+      </c>
+      <c r="E98">
+        <v>0.07764333388980364</v>
+      </c>
+      <c r="F98">
+        <v>-0.09507487964133055</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05490494181871338</v>
+        <v>0.05424403665039891</v>
       </c>
       <c r="C99">
-        <v>0.009685390337109853</v>
+        <v>-0.004735874006641309</v>
       </c>
       <c r="D99">
-        <v>0.0187775542031718</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.04007546274998647</v>
+      </c>
+      <c r="E99">
+        <v>-0.0223731113887801</v>
+      </c>
+      <c r="F99">
+        <v>0.001833026184154313</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1608301900862099</v>
+        <v>0.1265376908118314</v>
       </c>
       <c r="C100">
-        <v>0.0519875948260457</v>
+        <v>-0.05396799022924982</v>
       </c>
       <c r="D100">
-        <v>0.5121070507729173</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3452618306399479</v>
+      </c>
+      <c r="E100">
+        <v>0.8874109301393535</v>
+      </c>
+      <c r="F100">
+        <v>-0.1545205077106963</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02343089564489205</v>
+        <v>0.02838284337301219</v>
       </c>
       <c r="C101">
-        <v>-0.00693428029903851</v>
+        <v>0.008694234380421823</v>
       </c>
       <c r="D101">
-        <v>0.01621938890366813</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03058787029082532</v>
+      </c>
+      <c r="E101">
+        <v>-0.01317040138122798</v>
+      </c>
+      <c r="F101">
+        <v>-0.01510157467270128</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
